--- a/results/target_metrics.xlsx
+++ b/results/target_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Positive_Occurrences</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline Accuracy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>9735</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.6409206595108996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>8046</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.7032200951643245</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>5572</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.7944745675187194</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>5325</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.8035852605953303</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>4805</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.8227656670724061</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>4667</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.8278558518682454</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>4470</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.8351222750912913</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>3119</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.884954446534617</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>2805</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.896536461215005</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>2526</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.9068274869978975</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>1975</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.9271513407841835</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>1969</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.9273726531666113</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>1941</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.9284054442846077</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>1871</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.9309874220795987</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>1771</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.9346759617867286</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>1426</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.947401423776327</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>1422</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.9475489653646122</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>1409</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.948028475526539</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>1368</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.9495407768064623</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>1319</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.951348161262956</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>1171</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.9568072000295084</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1016,9 @@
       <c r="F23" t="n">
         <v>945</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.965143299767622</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1041,9 @@
       <c r="F24" t="n">
         <v>922</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.9659916639002619</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1066,9 @@
       <c r="F25" t="n">
         <v>886</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.9673195381948286</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1091,9 @@
       <c r="F26" t="n">
         <v>725</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.9732580871233079</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1116,9 @@
       <c r="F27" t="n">
         <v>630</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.9767621998450813</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1141,9 @@
       <c r="F28" t="n">
         <v>607</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.9776105639777212</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1166,9 @@
       <c r="F29" t="n">
         <v>571</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.978938438272288</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1191,9 @@
       <c r="F30" t="n">
         <v>522</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.9807458227287816</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1216,9 @@
       <c r="F31" t="n">
         <v>506</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.9813359890819224</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1241,9 @@
       <c r="F32" t="n">
         <v>488</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.9819999262292058</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1266,9 @@
       <c r="F33" t="n">
         <v>483</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.9821843532145623</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1291,9 @@
       <c r="F34" t="n">
         <v>477</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.9824056655969902</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1316,9 @@
       <c r="F35" t="n">
         <v>427</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.9842499354505552</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1341,9 @@
       <c r="F36" t="n">
         <v>402</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.9851720703773376</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1366,9 @@
       <c r="F37" t="n">
         <v>328</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.9879015897606138</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1391,9 @@
       <c r="F38" t="n">
         <v>279</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.9897089742171075</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1416,9 @@
       <c r="F39" t="n">
         <v>226</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.9916639002618863</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1441,9 @@
       <c r="F40" t="n">
         <v>208</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.9923278374091697</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1466,9 @@
       <c r="F41" t="n">
         <v>204</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.9924753789974549</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1491,9 @@
       <c r="F42" t="n">
         <v>180</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.9933606285271661</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1516,9 @@
       <c r="F43" t="n">
         <v>179</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.9933975139242374</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1541,9 @@
       <c r="F44" t="n">
         <v>169</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.9937663678949504</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1566,9 @@
       <c r="F45" t="n">
         <v>160</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.9940983364685921</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1591,9 @@
       <c r="F46" t="n">
         <v>134</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.9950573567924459</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1616,9 @@
       <c r="F47" t="n">
         <v>129</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.9952417837778024</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1641,9 @@
       <c r="F48" t="n">
         <v>126</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.9953524399690162</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1666,9 @@
       <c r="F49" t="n">
         <v>110</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.995942606322157</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1691,9 @@
       <c r="F50" t="n">
         <v>105</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.9961270333075135</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1564,6 +1716,9 @@
       <c r="F51" t="n">
         <v>46</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.9983032717347202</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1586,6 +1741,9 @@
       <c r="F52" t="n">
         <v>35</v>
       </c>
+      <c r="G52" t="n">
+        <v>0.9987090111025045</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1608,6 +1766,9 @@
       <c r="F53" t="n">
         <v>34</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.9987458964995758</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1629,6 +1790,9 @@
       </c>
       <c r="F54" t="n">
         <v>9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9996680314263583</v>
       </c>
     </row>
   </sheetData>
